--- a/Subgroups/ASX/Extension Definition Exercises/ASX Sample Report Messages.xlsx
+++ b/Subgroups/ASX/Extension Definition Exercises/ASX Sample Report Messages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hosang\Documents\6 - SISO\C2SIMDocs\ASX\C2SIMArtifacts\Subgroups\ASX\Extension Definition Exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD4A47E-DE2E-4D78-A07F-030C58E613DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090DCBEA-2D94-4808-85D1-38B3AF3B9F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{315F412D-A997-402A-95E2-E68C4026AE2E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="59">
   <si>
     <t>C2SIM Object</t>
   </si>
@@ -208,6 +208,12 @@
   </si>
   <si>
     <t>May use either repositoryReference and reportReference or URL</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Link to actual file.</t>
   </si>
 </sst>
 </file>
@@ -675,8 +681,8 @@
   <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:H1"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -874,6 +880,17 @@
         <v>31</v>
       </c>
     </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C39" s="8"/>
     </row>

--- a/Subgroups/ASX/Extension Definition Exercises/ASX Sample Report Messages.xlsx
+++ b/Subgroups/ASX/Extension Definition Exercises/ASX Sample Report Messages.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hosang\Documents\6 - SISO\C2SIMDocs\ASX\C2SIMArtifacts\Subgroups\ASX\Extension Definition Exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090DCBEA-2D94-4808-85D1-38B3AF3B9F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855BC739-F49E-44E8-A3E1-E6B87D0811CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{315F412D-A997-402A-95E2-E68C4026AE2E}"/>
+    <workbookView xWindow="9672" yWindow="3876" windowWidth="17280" windowHeight="8880" xr2:uid="{315F412D-A997-402A-95E2-E68C4026AE2E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Swarm Detection" sheetId="4" r:id="rId1"/>
-    <sheet name="Video Detection Report" sheetId="5" r:id="rId2"/>
+    <sheet name="Report MessageBody Fields" sheetId="8" r:id="rId1"/>
+    <sheet name="Order MessageBody Fields" sheetId="9" r:id="rId2"/>
+    <sheet name="Initialization MessageBody Fiel" sheetId="10" r:id="rId3"/>
+    <sheet name="Report Base Attributes" sheetId="7" r:id="rId4"/>
+    <sheet name="Swarm Detection" sheetId="4" r:id="rId5"/>
+    <sheet name="Video Detection Report" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="136">
   <si>
     <t>C2SIM Object</t>
   </si>
@@ -214,13 +218,244 @@
   </si>
   <si>
     <t>Link to actual file.</t>
+  </si>
+  <si>
+    <t>C2SIM</t>
+  </si>
+  <si>
+    <t>DomainMessageBody</t>
+  </si>
+  <si>
+    <t>MessageConcept</t>
+  </si>
+  <si>
+    <t>Element</t>
+  </si>
+  <si>
+    <t>MessageBody</t>
+  </si>
+  <si>
+    <t>isFromSender</t>
+  </si>
+  <si>
+    <t>UUIDBase</t>
+  </si>
+  <si>
+    <t>isToReceiver</t>
+  </si>
+  <si>
+    <t>Class that Defines Field</t>
+  </si>
+  <si>
+    <t>Model that defines attribute</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>Root Element</t>
+  </si>
+  <si>
+    <t>hasC2SIMHeader</t>
+  </si>
+  <si>
+    <t>C2SIMHeader</t>
+  </si>
+  <si>
+    <t>hasMessageBody</t>
+  </si>
+  <si>
+    <t>hasCommunicativeActTypeCode</t>
+  </si>
+  <si>
+    <t>See hasC2SIMHeader</t>
+  </si>
+  <si>
+    <t>SeeMessageBody</t>
+  </si>
+  <si>
+    <t>CommunicativeActTypeCode</t>
+  </si>
+  <si>
+    <t>See JC3IEDM</t>
+  </si>
+  <si>
+    <t>hasSecurityClassificationCode</t>
+  </si>
+  <si>
+    <t>SecurityClassificationCode</t>
+  </si>
+  <si>
+    <t>hasSendingTime</t>
+  </si>
+  <si>
+    <t>hasProtocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SISO-STD-C2SIM </t>
+  </si>
+  <si>
+    <t>(hardcoded)</t>
+  </si>
+  <si>
+    <t>hasProtocolVersion</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>hasConversationId</t>
+  </si>
+  <si>
+    <t>hasMessageId</t>
+  </si>
+  <si>
+    <t>isFromSendingSystem</t>
+  </si>
+  <si>
+    <t>isToReceivingSystem</t>
+  </si>
+  <si>
+    <t>hasReplyToSystem</t>
+  </si>
+  <si>
+    <t>isReplyToMessageId</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>hasReportContent</t>
+  </si>
+  <si>
+    <t>hasReportId</t>
+  </si>
+  <si>
+    <t>hasReportingEntity</t>
+  </si>
+  <si>
+    <t>hasTimeOfObservation</t>
+  </si>
+  <si>
+    <t>hasDuration</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>See hasReportContent</t>
+  </si>
+  <si>
+    <t>hasObservation</t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t>see hasObservation</t>
+  </si>
+  <si>
+    <t>See individual message examples.</t>
+  </si>
+  <si>
+    <t>hasActorReference</t>
+  </si>
+  <si>
+    <t>hasConfidenceLevel</t>
+  </si>
+  <si>
+    <t>hasUncertaintyInterval</t>
+  </si>
+  <si>
+    <t>hasActionCode</t>
+  </si>
+  <si>
+    <t>ActionCode</t>
+  </si>
+  <si>
+    <t>OrderBody</t>
+  </si>
+  <si>
+    <t>hasEntity</t>
+  </si>
+  <si>
+    <t>MapGraphic</t>
+  </si>
+  <si>
+    <t>hasTask</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>hasIssuedTime</t>
+  </si>
+  <si>
+    <t>hasTaskReference</t>
+  </si>
+  <si>
+    <t>hasOrderID</t>
+  </si>
+  <si>
+    <t>hasRequestingEntity</t>
+  </si>
+  <si>
+    <t>This varies for individual use cases.</t>
+  </si>
+  <si>
+    <t>C2SIMInitializationBody</t>
+  </si>
+  <si>
+    <t>InitializationDataFile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hasInitializationFile </t>
+  </si>
+  <si>
+    <t>hasObjectDefinitions</t>
+  </si>
+  <si>
+    <t>ObjectDefinitions</t>
+  </si>
+  <si>
+    <t>hasSystemEntityList</t>
+  </si>
+  <si>
+    <t>SystemEntityList</t>
+  </si>
+  <si>
+    <t>hasScenarioSetting</t>
+  </si>
+  <si>
+    <t>ScenarioSetting</t>
+  </si>
+  <si>
+    <t>hasLocation</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>hasDirectionOfMovement</t>
+  </si>
+  <si>
+    <t>Orientation</t>
+  </si>
+  <si>
+    <t>hasSpeed</t>
+  </si>
+  <si>
+    <t>Float</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,8 +479,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,6 +504,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,7 +526,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -295,6 +550,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -635,34 +900,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD8657B-334A-4D98-BC78-4DE9F5DE29B2}">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550962A6-F1BC-47E8-810D-6806D0787E57}">
+  <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="23.5546875" style="1"/>
+    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="19.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="38" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="36" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>2</v>
@@ -670,6 +941,513 @@
       <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="G35" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="2"/>
+      <c r="B38" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="G41" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="9"/>
+      <c r="B44" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G47" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="9"/>
+      <c r="G49" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G53" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G54" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G55" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="9"/>
+    </row>
+    <row r="62" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G62" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="9"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -677,12 +1455,713 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C66366-AD5E-4882-A227-B373EE81662B}">
-  <dimension ref="A1:G62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C59498-BDEF-4133-8597-7DBECC2903F0}">
+  <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="19.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="38" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="36" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="4"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="9"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="9"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="9"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="9"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D06663-0526-4396-B3EE-7496D2BA3F56}">
+  <dimension ref="A1:G68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="38" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="36" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="4"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="9"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="9"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="9"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="9"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA568A3-46B1-4A74-80DC-08293821698C}">
+  <dimension ref="A1:G68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -720,46 +2199,534 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="G8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="G35" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="2"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D44" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C45" s="8"/>
+    </row>
+    <row r="46" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D50" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D51" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D52" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D56" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D57" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D58" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D59" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD8657B-334A-4D98-BC78-4DE9F5DE29B2}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="23.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="23.5546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C66366-AD5E-4882-A227-B373EE81662B}">
+  <dimension ref="A1:H62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="19.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="38" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C13" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>15</v>
       </c>
@@ -767,46 +2734,47 @@
         <v>17</v>
       </c>
       <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D23" s="1" t="s">
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D24" s="1" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D25" s="1" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D26" s="1" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="F26" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>15</v>
       </c>
@@ -814,227 +2782,234 @@
         <v>18</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="G29" s="1" t="s">
+      <c r="D29" s="2"/>
+      <c r="H29" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D30" s="1" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D31" s="1" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D32" s="1" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="6"/>
+      <c r="D35" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D36" s="1" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E36" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D37" s="1" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E37" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D38" s="1" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E38" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C39" s="8"/>
-    </row>
-    <row r="40" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D39" s="8"/>
+    </row>
+    <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="6"/>
+      <c r="D40" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D41" s="1" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E41" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D42" s="1" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E42" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D43" s="1" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E43" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D44" s="1" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E44" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="H44" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D45" s="1" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E45" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D46" s="1" t="s">
+    <row r="46" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E46" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="6"/>
+      <c r="D49" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D50" s="1" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E50" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D51" s="1" t="s">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E51" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D52" s="1" t="s">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E52" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D53" s="1" t="s">
+    <row r="53" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E53" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="H53" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="6"/>
+      <c r="D55" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C59" s="2"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="F62" s="1" t="s">
         <v>49</v>
       </c>
     </row>

--- a/Subgroups/ASX/Extension Definition Exercises/ASX Sample Report Messages.xlsx
+++ b/Subgroups/ASX/Extension Definition Exercises/ASX Sample Report Messages.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hosang\Documents\6 - SISO\C2SIMDocs\ASX\C2SIMArtifacts\Subgroups\ASX\Extension Definition Exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855BC739-F49E-44E8-A3E1-E6B87D0811CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF919C5-CFC5-4695-8DFC-21D370DAC01F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9672" yWindow="3876" windowWidth="17280" windowHeight="8880" xr2:uid="{315F412D-A997-402A-95E2-E68C4026AE2E}"/>
+    <workbookView xWindow="3516" yWindow="4848" windowWidth="17280" windowHeight="8880" firstSheet="3" activeTab="5" xr2:uid="{315F412D-A997-402A-95E2-E68C4026AE2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Report MessageBody Fields" sheetId="8" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="143">
   <si>
     <t>C2SIM Object</t>
   </si>
@@ -449,6 +449,27 @@
   </si>
   <si>
     <t>Float</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string </t>
+  </si>
+  <si>
+    <t>May be based on location of sensor.</t>
+  </si>
+  <si>
+    <t>analystComment</t>
+  </si>
+  <si>
+    <t>SensorObservation</t>
+  </si>
+  <si>
+    <t>Unit with Sensor</t>
+  </si>
+  <si>
+    <t>Observed entity's location (optional)</t>
+  </si>
+  <si>
+    <t>Sensors's  location</t>
   </si>
 </sst>
 </file>
@@ -903,7 +924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550962A6-F1BC-47E8-810D-6806D0787E57}">
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
     </sheetView>
@@ -2157,18 +2178,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA568A3-46B1-4A74-80DC-08293821698C}">
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="25.109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="19.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="1" customWidth="1"/>
     <col min="6" max="6" width="29.88671875" style="1" customWidth="1"/>
     <col min="7" max="7" width="38" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="1"/>
@@ -2292,300 +2315,300 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="C10" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="D28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D29" s="1" t="s">
+      <c r="B32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="G32" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D30" s="1" t="s">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D31" s="1" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D32" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" s="5" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="2"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="G35" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>12</v>
+      <c r="C38" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="2"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
+      <c r="D40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
+      <c r="D41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C42" s="8"/>
+    </row>
+    <row r="43" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" s="7" t="s">
+      <c r="B43" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D42" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D43" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>31</v>
+      <c r="G43" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D44" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C45" s="8"/>
-    </row>
-    <row r="46" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>26</v>
+      <c r="D45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D47" s="1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>51</v>
+        <v>27</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D48" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D49" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D50" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D51" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E51" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G49" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="D52" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>56</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D53" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D54" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="6" t="s">
+      <c r="D55" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D56" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B55" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D56" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D57" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D58" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D59" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B61" s="6" t="s">
+      <c r="B58" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C58" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F58" s="1" t="s">
         <v>40</v>
       </c>
     </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B68" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2638,22 +2661,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C66366-AD5E-4882-A227-B373EE81662B}">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="1" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="25.109375" style="1" customWidth="1"/>
     <col min="5" max="6" width="19.5546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="29.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="38" style="1" customWidth="1"/>
+    <col min="8" max="8" width="82.44140625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -2706,310 +2729,384 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="G5" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="E22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>12</v>
+      <c r="E25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E26" s="1" t="s">
-        <v>21</v>
+      <c r="E26" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="H29" s="1" t="s">
-        <v>20</v>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>10</v>
+      <c r="A30" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E31" s="1" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="7" t="s">
         <v>39</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E36" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E37" s="1" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E38" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E41" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D39" s="8"/>
-    </row>
-    <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
+      <c r="F41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E41" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E42" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B43" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="E43" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E44" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E45" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E46" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E50" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E51" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E52" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E53" s="1" t="s">
+    <row r="47" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E47" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="7" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
+      <c r="C51" s="2"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C59" s="2"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B62" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>49</v>
       </c>
     </row>
